--- a/biology/Médecine/François-Zacharie_Roussin/François-Zacharie_Roussin.xlsx
+++ b/biology/Médecine/François-Zacharie_Roussin/François-Zacharie_Roussin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Zacharie_Roussin</t>
+          <t>François-Zacharie_Roussin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François-Zacharie Roussin, né le 6 septembre 1827 à Vieux-Vy-sur-Couesnon, en Ille-et-Vilaine[1], et mort le 8 avril 1894 à Paris, est un chimiste et pharmacien français[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François-Zacharie Roussin, né le 6 septembre 1827 à Vieux-Vy-sur-Couesnon, en Ille-et-Vilaine, et mort le 8 avril 1894 à Paris, est un chimiste et pharmacien français,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Zacharie_Roussin</t>
+          <t>François-Zacharie_Roussin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parents de Roussin étaient François Roussin et Angélique Daligaut, papetiers établis. Après l'école primaire à Fougères et le lycée à Rennes, il étudie de 1846 à 1847 à l'École de médecine et de pharmacie de Rennes, d'où il sort diplômé avec mention. Durant ses années d'études, il travaille en tant qu'assistant préparant des expériences.
 Contrairement au souhait de ses parents qui le voyaient devenir pharmacien à Fougères, Roussin a voulu exploiter les belles opportunités de son domaine. C'est pourquoi, comme beaucoup de jeunes, il est attiré par la capitale, Paris, au cours de la Révolution française de 1848. En 1849, Roussin y commence ses études à l'Internat des hôpitaux de Paris, dont il sort diplômé en 1852 avec mention, ce qui lui vaut l'exonération de ses  frais de scolarité. En 1851, alors qu'il était encore étudiant, il réussit pour la première fois à extraire du mannitol de feuilles de lilas. De plus, en 1852, il réussit à améliorer la synthèse du nitroprussiate.
@@ -523,7 +537,7 @@
 Il découvre la glycyrrhizine en 1873 en l'extrayant de la racine de réglisse, qu'il décrit dans son livre De la nature de la matière sucrée de la racine de réglisse. Il est également promu pharmacien en chef de deuxième classe. Cela s'accompagne de son détachement comme pharmacien-chef du grand hôpital militaire de Lyon. De retour à Paris en 1875, il est promu pharmacien de première classe et nommé pharmacien-chef à l'hôpital militaire du Gros-Caillou. À l'Exposition universelle de 1878, il reçoit la médaille d'argent pour l'ensemble de son œuvre. En 1879, Roussin est chargé de réorganiser le service de santé de l'armée française. Roussin a démissionné de l'armée en raison de son transfert dans les troupes coloniales en Algérie en tant que pharmacien en chef. En 1886, il reçut par la suite un prix de la Société d'encouragement pour l'industrie nationale pour l'utilisation du naphtalène.
 Roussin poursuit ses recherches dans les années qui suivent. Pour la détection de la nicotine, Roussin a développé une méthode dans laquelle des cristaux en forme d'aiguille, les cristaux de Roussin, sont formés par chauffage. Il dépose également le premier brevet de coloration mécaniquement résistante des fibres réfractaires.
 Roussin est mort dans son laboratoire à l'âge de 66 ans d'un empoisonnement causé par un éclairage défectueux, qui fonctionnait alors au gaz de ville.
-Il a donné son nom à une rue de la ville de Rennes[4].
+Il a donné son nom à une rue de la ville de Rennes.
 </t>
         </is>
       </c>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Zacharie_Roussin</t>
+          <t>François-Zacharie_Roussin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Zacharie Roussin faisait partie de ce grand corps auquel la science est redevable, depuis Scheele jusqu'à nos jours, de cette pléiade de savants qui dans tous les pays, ont laissé des traces impérissables de leur savoir et de leur génie. » (Albin Haller)
 « C’est incontestablement Zacharie Roussin qui découvrit et apporta à l’industrie les premières matières colorantes azoïques vraies, c’est-à-dire les premiers corps azoïques susceptibles d’applications générales à la teinture. Les savants du monde entier ont reconnu la priorité de la découverte de Roussin. Elle date réellement de 1875 ainsi qu’en font foi cinq plis cachetés déposés par l’auteur à l’Académie des sciences. » (Dominique Luizet)
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Zacharie_Roussin</t>
+          <t>François-Zacharie_Roussin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,14 +600,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De la nature de la matière sucrée de la racine de réglisse
 Note sur un nouveau mode de production du cyanogène et de l'action du chlorure de soufre sur les huiles, Paris, Rozier, 1859.
 Sirop de gomme. Dosage de la gomme, Paris, 1860.
 Action de la lumière polarisée sur la gomme arabique solide,  Paris, 1860.
 Falsification des vins par l’alun, Paris, Annales d'hygiène publique et de médecine légale, 1861.
-Relation médico-légale de l’affaire Couty de la Pommerais[5], avec Auguste Ambroise Tardieu, 1864.
+Relation médico-légale de l’affaire Couty de la Pommerais, avec Auguste Ambroise Tardieu, 1864.
 Examen médico-légal des taches de sang, Paris, Baillière, 1865.
 Empoisonnement par le vert de Schweinfurt. Nouvelles expériences relatives à l'absorption cutanée, Paris, 1867.
 Mémoire sur la coralline, et sur le danger que présente l’emploi de cette substance dans la teinture de certains vêtements, avec Auguste Ambroise Tardieu, 1869.
